--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.55045227321852</v>
+        <v>0.3206776666666667</v>
       </c>
       <c r="H2">
-        <v>5.55045227321852</v>
+        <v>0.962033</v>
       </c>
       <c r="I2">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="J2">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N2">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q2">
-        <v>40.97505596382454</v>
+        <v>2.824176356351778</v>
       </c>
       <c r="R2">
-        <v>40.97505596382454</v>
+        <v>25.417587207166</v>
       </c>
       <c r="S2">
-        <v>0.08624752864582225</v>
+        <v>0.00520446287560329</v>
       </c>
       <c r="T2">
-        <v>0.08624752864582225</v>
+        <v>0.00520446287560329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.55045227321852</v>
+        <v>0.3206776666666667</v>
       </c>
       <c r="H3">
-        <v>5.55045227321852</v>
+        <v>0.962033</v>
       </c>
       <c r="I3">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="J3">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N3">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q3">
-        <v>103.6824402531366</v>
+        <v>6.018122709575112</v>
       </c>
       <c r="R3">
-        <v>103.6824402531366</v>
+        <v>54.16310438617601</v>
       </c>
       <c r="S3">
-        <v>0.2182389755293085</v>
+        <v>0.01109034715638963</v>
       </c>
       <c r="T3">
-        <v>0.2182389755293085</v>
+        <v>0.01109034715638963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.55045227321852</v>
+        <v>0.3206776666666667</v>
       </c>
       <c r="H4">
-        <v>5.55045227321852</v>
+        <v>0.962033</v>
       </c>
       <c r="I4">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="J4">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N4">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q4">
-        <v>126.6688438404063</v>
+        <v>7.447784985917334</v>
       </c>
       <c r="R4">
-        <v>126.6688438404063</v>
+        <v>67.03006487325601</v>
       </c>
       <c r="S4">
-        <v>0.266622570260888</v>
+        <v>0.0137249645821531</v>
       </c>
       <c r="T4">
-        <v>0.266622570260888</v>
+        <v>0.0137249645821531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.16827313610841</v>
+        <v>5.752274333333333</v>
       </c>
       <c r="H5">
-        <v>4.16827313610841</v>
+        <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.4288909255639813</v>
+        <v>0.5384908178993973</v>
       </c>
       <c r="J5">
-        <v>0.4288909255639813</v>
+        <v>0.5384908178993975</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N5">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q5">
-        <v>30.77140683627753</v>
+        <v>50.65970866108288</v>
       </c>
       <c r="R5">
-        <v>30.77140683627753</v>
+        <v>455.937377949746</v>
       </c>
       <c r="S5">
-        <v>0.06477008341189781</v>
+        <v>0.09335697907905131</v>
       </c>
       <c r="T5">
-        <v>0.06477008341189781</v>
+        <v>0.09335697907905134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.16827313610841</v>
+        <v>5.752274333333333</v>
       </c>
       <c r="H6">
-        <v>4.16827313610841</v>
+        <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.4288909255639813</v>
+        <v>0.5384908178993973</v>
       </c>
       <c r="J6">
-        <v>0.4288909255639813</v>
+        <v>0.5384908178993975</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N6">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q6">
-        <v>77.86333601652788</v>
+        <v>107.9523034983396</v>
       </c>
       <c r="R6">
-        <v>77.86333601652788</v>
+        <v>971.5707314850562</v>
       </c>
       <c r="S6">
-        <v>0.1638928891146279</v>
+        <v>0.1989372068176134</v>
       </c>
       <c r="T6">
-        <v>0.1638928891146279</v>
+        <v>0.1989372068176134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.752274333333333</v>
+      </c>
+      <c r="H7">
+        <v>17.256823</v>
+      </c>
+      <c r="I7">
+        <v>0.5384908178993973</v>
+      </c>
+      <c r="J7">
+        <v>0.5384908178993975</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.225144</v>
+      </c>
+      <c r="N7">
+        <v>69.675432</v>
+      </c>
+      <c r="O7">
+        <v>0.4571974559624301</v>
+      </c>
+      <c r="P7">
+        <v>0.4571974559624301</v>
+      </c>
+      <c r="Q7">
+        <v>133.5973997191707</v>
+      </c>
+      <c r="R7">
+        <v>1202.376597472536</v>
+      </c>
+      <c r="S7">
+        <v>0.2461966320027327</v>
+      </c>
+      <c r="T7">
+        <v>0.2461966320027327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H8">
+        <v>13.827787</v>
+      </c>
+      <c r="I8">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J8">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.806900666666666</v>
+      </c>
+      <c r="N8">
+        <v>26.420702</v>
+      </c>
+      <c r="O8">
+        <v>0.1733678197953833</v>
+      </c>
+      <c r="P8">
+        <v>0.1733678197953834</v>
+      </c>
+      <c r="Q8">
+        <v>40.59331551627488</v>
+      </c>
+      <c r="R8">
+        <v>365.339839646474</v>
+      </c>
+      <c r="S8">
+        <v>0.07480637784072873</v>
+      </c>
+      <c r="T8">
+        <v>0.07480637784072874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.16827313610841</v>
-      </c>
-      <c r="H7">
-        <v>4.16827313610841</v>
-      </c>
-      <c r="I7">
-        <v>0.4288909255639813</v>
-      </c>
-      <c r="J7">
-        <v>0.4288909255639813</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>22.8213553788393</v>
-      </c>
-      <c r="N7">
-        <v>22.8213553788393</v>
-      </c>
-      <c r="O7">
-        <v>0.4668505232983435</v>
-      </c>
-      <c r="P7">
-        <v>0.4668505232983435</v>
-      </c>
-      <c r="Q7">
-        <v>95.12564255519902</v>
-      </c>
-      <c r="R7">
-        <v>95.12564255519902</v>
-      </c>
-      <c r="S7">
-        <v>0.2002279530374556</v>
-      </c>
-      <c r="T7">
-        <v>0.2002279530374556</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H9">
+        <v>13.827787</v>
+      </c>
+      <c r="I9">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J9">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.76689066666667</v>
+      </c>
+      <c r="N9">
+        <v>56.30067200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3694347242421866</v>
+      </c>
+      <c r="P9">
+        <v>0.3694347242421866</v>
+      </c>
+      <c r="Q9">
+        <v>86.50152226365157</v>
+      </c>
+      <c r="R9">
+        <v>778.5137003728642</v>
+      </c>
+      <c r="S9">
+        <v>0.1594071702681835</v>
+      </c>
+      <c r="T9">
+        <v>0.1594071702681835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H10">
+        <v>13.827787</v>
+      </c>
+      <c r="I10">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J10">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.225144</v>
+      </c>
+      <c r="N10">
+        <v>69.675432</v>
+      </c>
+      <c r="O10">
+        <v>0.4571974559624301</v>
+      </c>
+      <c r="P10">
+        <v>0.4571974559624301</v>
+      </c>
+      <c r="Q10">
+        <v>107.0507814254427</v>
+      </c>
+      <c r="R10">
+        <v>963.4570328289841</v>
+      </c>
+      <c r="S10">
+        <v>0.1972758593775443</v>
+      </c>
+      <c r="T10">
+        <v>0.1972758593775443</v>
       </c>
     </row>
   </sheetData>
